--- a/OTROS ARCHIVOS/HOJA 1.xlsx
+++ b/OTROS ARCHIVOS/HOJA 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepe\Documents\GIT_TEST\OTROS ARCHIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F4DD8-2F2F-4A41-9E96-5E0583F54F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05AE41-D5D9-4CF9-BE3D-ED08BC8A81C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-1950" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PRIMER CAMBIO</t>
+  </si>
+  <si>
+    <t>SEGUNDO CAMBIO</t>
   </si>
 </sst>
 </file>
@@ -345,9 +348,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -356,10 +361,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
